--- a/Stocks/PAGEIND.xlsx
+++ b/Stocks/PAGEIND.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>14736.366666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>16827.642459915565</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>16493.283045887496</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>57.08049614434352</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>109.59999999999854</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>442.64999999999782</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.24759968372302968</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>16652.053643498668</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>107.04339706103929</v>
       </c>
       <c r="Y67">
         <v>147.0715794119314</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>17209</v>
+      </c>
+      <c r="D83">
+        <v>17450</v>
+      </c>
+      <c r="E83">
+        <v>17170.5</v>
+      </c>
+      <c r="F83">
+        <v>17380.5</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>17333.666666666668</v>
+      </c>
+      <c r="H83">
+        <v>17257.769574368183</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>17298.095247989513</v>
+      </c>
+      <c r="K83">
+        <v>16826.349852260239</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>75.614592877475701</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>210</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>279.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.75134168157423975</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>16973.38324879179</v>
+      </c>
+      <c r="W83">
+        <v>16796.493812217694</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>176.88943657409618</v>
+      </c>
+      <c r="Y83">
+        <v>96.22597112414266</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>17302</v>
+      </c>
+      <c r="D84">
+        <v>17389.849999999999</v>
+      </c>
+      <c r="E84">
+        <v>17100.05</v>
+      </c>
+      <c r="F84">
+        <v>17224</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>17237.966666666664</v>
+      </c>
+      <c r="H84">
+        <v>17247.868120517422</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>17318.485192880733</v>
+      </c>
+      <c r="K84">
+        <v>16887.17210731352</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>60.92363631906543</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>123.95000000000073</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>289.79999999999927</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.42770876466529001</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>17011.939672054592</v>
+      </c>
+      <c r="W84">
+        <v>16828.160937238605</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>183.77873481598726</v>
+      </c>
+      <c r="Y84">
+        <v>113.73652386251158</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>17350</v>
+      </c>
+      <c r="D85">
+        <v>17651</v>
+      </c>
+      <c r="E85">
+        <v>17280.05</v>
+      </c>
+      <c r="F85">
+        <v>17555</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>17495.350000000002</v>
+      </c>
+      <c r="H85">
+        <v>17371.609060258714</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>17392.377372240571</v>
+      </c>
+      <c r="K85">
+        <v>16974.478305688292</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>74.18403304898969</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>274.95000000000073</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>370.95000000000073</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.74120501415285134</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>17095.487414815423</v>
+      </c>
+      <c r="W85">
+        <v>16882.000867813524</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>213.48654700189945</v>
+      </c>
+      <c r="Y85">
+        <v>133.68652849038915</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>17650</v>
+      </c>
+      <c r="D86">
+        <v>17912.400000000001</v>
+      </c>
+      <c r="E86">
+        <v>17560.150000000001</v>
+      </c>
+      <c r="F86">
+        <v>17614.45</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>17695.666666666668</v>
+      </c>
+      <c r="H86">
+        <v>17533.637863462689</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>17507.93795618711</v>
+      </c>
+      <c r="K86">
+        <v>17104.627571090892</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>76.011616575797149</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>54.299999999999272</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>352.25</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.15415188076649899</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>17175.327812536128</v>
+      </c>
+      <c r="W86">
+        <v>16936.256359086598</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>239.07145344953096</v>
+      </c>
+      <c r="Y86">
+        <v>154.76351348221752</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>17659</v>
+      </c>
+      <c r="D87">
+        <v>17999</v>
+      </c>
+      <c r="E87">
+        <v>17648.8</v>
+      </c>
+      <c r="F87">
+        <v>17999</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>17882.266666666666</v>
+      </c>
+      <c r="H87">
+        <v>17707.952265064676</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>17617.062854812197</v>
+      </c>
+      <c r="K87">
+        <v>17225.554777515139</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>84.744098357032286</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>350.20000000000073</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>350.20000000000073</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>17302.046610607493</v>
+      </c>
+      <c r="W87">
+        <v>17014.978110265369</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>287.06850034212403</v>
+      </c>
+      <c r="Y87">
+        <v>181.22451085419883</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>17688.7</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>17782.600000000002</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>17823.900000000001</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>17865.2</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>18000</v>
+      </c>
+      <c r="D88">
+        <v>18250</v>
+      </c>
+      <c r="E88">
+        <v>17758.650000000001</v>
+      </c>
+      <c r="F88">
+        <v>17924.900000000001</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>17977.850000000002</v>
+      </c>
+      <c r="H88">
+        <v>17842.901132532337</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>17757.715553742819</v>
+      </c>
+      <c r="K88">
+        <v>17344.020382511775</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>77.912544454748755</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>166.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>491.34999999999854</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.33835351582375189</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>17397.870208975572</v>
+      </c>
+      <c r="W88">
+        <v>17082.379731727193</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>315.49047724837874</v>
+      </c>
+      <c r="Y88">
+        <v>208.07770413303481</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>18185</v>
+      </c>
+      <c r="D89">
+        <v>18451</v>
+      </c>
+      <c r="E89">
+        <v>18150</v>
+      </c>
+      <c r="F89">
+        <v>18230.099999999999</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>18277.033333333333</v>
+      </c>
+      <c r="H89">
+        <v>18059.967232932835</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>17911.778764022194</v>
+      </c>
+      <c r="K89">
+        <v>17523.126964175826</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>84.390894244039529</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>80.099999999998545</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>301</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.26611295681062641</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>17525.905561440868</v>
+      </c>
+      <c r="W89">
+        <v>17167.396047895549</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>358.50951354531935</v>
+      </c>
+      <c r="Y89">
+        <v>238.16406601549173</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>18230.099999999999</v>
+      </c>
+      <c r="D90">
+        <v>18470.849999999999</v>
+      </c>
+      <c r="E90">
+        <v>18120.05</v>
+      </c>
+      <c r="F90">
+        <v>18200</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>18263.633333333331</v>
+      </c>
+      <c r="H90">
+        <v>18161.800283133081</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>18036.016816461706</v>
+      </c>
+      <c r="K90">
+        <v>17655.776527692309</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>81.44592970676365</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>79.950000000000728</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>350.79999999999927</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.2279076396807323</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>17629.612398142272</v>
+      </c>
+      <c r="W90">
+        <v>17243.885229532916</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>385.72716860935543</v>
+      </c>
+      <c r="Y90">
+        <v>267.67668653426449</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>18490</v>
+      </c>
+      <c r="D91">
+        <v>18490</v>
+      </c>
+      <c r="E91">
+        <v>18250</v>
+      </c>
+      <c r="F91">
+        <v>18364.849999999999</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>18368.283333333333</v>
+      </c>
+      <c r="H91">
+        <v>18265.041808233207</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>18136.901968359103</v>
+      </c>
+      <c r="K91">
+        <v>17787.82618820513</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>85.023760025026831</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>114.84999999999854</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>240</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.47854166666666059</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>17742.725875351152</v>
+      </c>
+      <c r="W91">
+        <v>17326.919656974922</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>415.80621837623039</v>
+      </c>
+      <c r="Y91">
+        <v>297.30259290265769</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>18390.25</v>
+      </c>
+      <c r="D92">
+        <v>18693</v>
+      </c>
+      <c r="E92">
+        <v>18346.55</v>
+      </c>
+      <c r="F92">
+        <v>18500</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>18513.183333333334</v>
+      </c>
+      <c r="H92">
+        <v>18389.112570783269</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>18260.479308723749</v>
+      </c>
+      <c r="K92">
+        <v>17911.987035270657</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>87.494935522849403</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>153.45000000000073</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>346.45000000000073</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.44292105642950036</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>17859.22958683559</v>
+      </c>
+      <c r="W92">
+        <v>17413.814497199</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>445.41508963658998</v>
+      </c>
+      <c r="Y92">
+        <v>326.92509224944416</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>18800</v>
+      </c>
+      <c r="D93">
+        <v>18936.75</v>
+      </c>
+      <c r="E93">
+        <v>18509</v>
+      </c>
+      <c r="F93">
+        <v>18689.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>18711.75</v>
+      </c>
+      <c r="H93">
+        <v>18550.431285391634</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>18410.761684562916</v>
+      </c>
+      <c r="K93">
+        <v>18044.656582988289</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>90.300164644035547</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>180.5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>427.75</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.42197545295149036</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>17986.963496553191</v>
+      </c>
+      <c r="W93">
+        <v>17508.309719628705</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>478.65377692448601</v>
+      </c>
+      <c r="Y93">
+        <v>357.27082918445251</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>18710</v>
+      </c>
+      <c r="D94">
+        <v>18950</v>
+      </c>
+      <c r="E94">
+        <v>18601.099999999999</v>
+      </c>
+      <c r="F94">
+        <v>18601.099999999999</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>18717.399999999998</v>
+      </c>
+      <c r="H94">
+        <v>18633.915642695814</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>18530.592421326714</v>
+      </c>
+      <c r="K94">
+        <v>18168.310675657558</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>79.854525884937686</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>348.90000000000146</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>18081.446035545006</v>
+      </c>
+      <c r="W94">
+        <v>17589.257147804357</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>492.18888774064908</v>
+      </c>
+      <c r="Y94">
+        <v>384.2544408956918</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>18784.900000000001</v>
+      </c>
+      <c r="D95">
+        <v>18850</v>
+      </c>
+      <c r="E95">
+        <v>18544.55</v>
+      </c>
+      <c r="F95">
+        <v>18615</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>18669.850000000002</v>
+      </c>
+      <c r="H95">
+        <v>18651.882821347906</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>18601.57188325411</v>
+      </c>
+      <c r="K95">
+        <v>18251.919414400323</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>80.30237616299722</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>70.450000000000728</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>305.45000000000073</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.23064331314454267</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>18163.531260845775</v>
+      </c>
+      <c r="W95">
+        <v>17665.238099818849</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>498.2931610269261</v>
+      </c>
+      <c r="Y95">
+        <v>407.06218492193864</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>18738.349999999999</v>
+      </c>
+      <c r="D96">
+        <v>18925</v>
+      </c>
+      <c r="E96">
+        <v>18556.05</v>
+      </c>
+      <c r="F96">
+        <v>18800</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>18760.350000000002</v>
+      </c>
+      <c r="H96">
+        <v>18706.116410673952</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>18673.44479808653</v>
+      </c>
+      <c r="K96">
+        <v>18319.503988978027</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>85.620568258061851</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>243.95000000000073</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>368.95000000000073</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.66120070470253489</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>18261.449528407964</v>
+      </c>
+      <c r="W96">
+        <v>17749.294536869304</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>512.1549915386604</v>
+      </c>
+      <c r="Y96">
+        <v>428.08074624528297</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>18664.900000000001</v>
+      </c>
+      <c r="D97">
+        <v>18915</v>
+      </c>
+      <c r="E97">
+        <v>18515.05</v>
+      </c>
+      <c r="F97">
+        <v>18888</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>18772.683333333334</v>
+      </c>
+      <c r="H97">
+        <v>18739.399872003643</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>18727.12373184508</v>
+      </c>
+      <c r="K97">
+        <v>18362.958658094019</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>87.609658211991146</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>372.95000000000073</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>399.95000000000073</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.93249156144518075</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>18357.841908652892</v>
+      </c>
+      <c r="W97">
+        <v>17833.6430896938</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>524.19881895909202</v>
+      </c>
+      <c r="Y97">
+        <v>447.30436078804479</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="35"/>
+        <v>18560.650000000001</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="36"/>
+        <v>18667.850000000002</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="37"/>
+        <v>18715.05</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="38"/>
+        <v>18762.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>18803</v>
+      </c>
+      <c r="D98">
+        <v>19550</v>
+      </c>
+      <c r="E98">
+        <v>18752</v>
+      </c>
+      <c r="F98">
+        <v>19327</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>19209.666666666668</v>
+      </c>
+      <c r="H98">
+        <v>18974.533269335156</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>18909.985124768395</v>
+      </c>
+      <c r="K98">
+        <v>18449.412289628683</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>93.347789955663643</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>575</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>798</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.72055137844611528</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>18506.943153475524</v>
+      </c>
+      <c r="W98">
+        <v>17944.262120086853</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>562.68103338867149</v>
+      </c>
+      <c r="Y98">
+        <v>470.37969530817014</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>19135</v>
+      </c>
+      <c r="D99">
+        <v>19500</v>
+      </c>
+      <c r="E99">
+        <v>19135</v>
+      </c>
+      <c r="F99">
+        <v>19425</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>19353.333333333332</v>
+      </c>
+      <c r="H99">
+        <v>19163.933301334244</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>19041.099541486528</v>
+      </c>
+      <c r="K99">
+        <v>18601.765114155642</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>94.109067226900322</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>290</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>365</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.79452054794520544</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>18648.182668325444</v>
+      </c>
+      <c r="W99">
+        <v>18053.946407487827</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>594.23626083761701</v>
+      </c>
+      <c r="Y99">
+        <v>495.1510084140595</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>19265.05</v>
+      </c>
+      <c r="D100">
+        <v>19575</v>
+      </c>
+      <c r="E100">
+        <v>18901.55</v>
+      </c>
+      <c r="F100">
+        <v>19000</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>19158.850000000002</v>
+      </c>
+      <c r="H100">
+        <v>19161.391650667123</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>19159.744087822855</v>
+      </c>
+      <c r="K100">
+        <v>18668.383977676611</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>58.07880364828678</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>98.450000000000728</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>673.45000000000073</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.14618754176256682</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>18702.308411659989</v>
+      </c>
+      <c r="W100">
+        <v>18124.024451377616</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>578.2839602823733</v>
+      </c>
+      <c r="Y100">
+        <v>511.77759878772224</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>19139.900000000001</v>
+      </c>
+      <c r="D101">
+        <v>19348.900000000001</v>
+      </c>
+      <c r="E101">
+        <v>18811</v>
+      </c>
+      <c r="F101">
+        <v>19251.05</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>19136.983333333334</v>
+      </c>
+      <c r="H101">
+        <v>19149.18749200023</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>19201.778734973333</v>
+      </c>
+      <c r="K101">
+        <v>18700.076427081807</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>67.317862471710129</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>440.04999999999927</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>537.90000000000146</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.81808886410113046</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>18786.73019448153</v>
+      </c>
+      <c r="W101">
+        <v>18207.507825349643</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>579.22236913188681</v>
+      </c>
+      <c r="Y101">
+        <v>525.26655285655511</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>19026</v>
+      </c>
+      <c r="D102">
+        <v>19379.95</v>
+      </c>
+      <c r="E102">
+        <v>18837.3</v>
+      </c>
+      <c r="F102">
+        <v>19179.849999999999</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>19132.366666666665</v>
+      </c>
+      <c r="H102">
+        <v>19140.777079333449</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>19241.372349423706</v>
+      </c>
+      <c r="K102">
+        <v>18730.57055439696</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>62.439404191535964</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>342.54999999999927</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>542.65000000000146</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.63125403114345957</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>18847.210164561293</v>
+      </c>
+      <c r="W102">
+        <v>18279.533171620038</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>567.67699294125487</v>
+      </c>
+      <c r="Y102">
+        <v>533.74864087349511</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>19087</v>
+      </c>
+      <c r="D103">
+        <v>19102.400000000001</v>
+      </c>
+      <c r="E103">
+        <v>18365.150000000001</v>
+      </c>
+      <c r="F103">
+        <v>18461</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>18642.850000000002</v>
+      </c>
+      <c r="H103">
+        <v>18891.813539666728</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>19210.489605107326</v>
+      </c>
+      <c r="K103">
+        <v>18649.36598675319</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>32.612626009066652</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>95.849999999998545</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>737.25</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.13001017293997769</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>18787.793216167247</v>
+      </c>
+      <c r="W103">
+        <v>18292.975158907444</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>494.81805725980303</v>
+      </c>
+      <c r="Y103">
+        <v>525.96252415075674</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>18509.900000000001</v>
+      </c>
+      <c r="D104">
+        <v>19218.5</v>
+      </c>
+      <c r="E104">
+        <v>18301</v>
+      </c>
+      <c r="F104">
+        <v>18818.650000000001</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>18779.383333333335</v>
+      </c>
+      <c r="H104">
+        <v>18835.598436500033</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>19212.269692861253</v>
+      </c>
+      <c r="K104">
+        <v>18571.951323030258</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>48.046977279262229</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>517.65000000000146</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>917.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.56419618528610516</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>18792.540413679977</v>
+      </c>
+      <c r="W104">
+        <v>18331.91403602541</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>460.62637765456748</v>
+      </c>
+      <c r="Y104">
+        <v>512.89529485151888</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>18770</v>
+      </c>
+      <c r="D105">
+        <v>19007.75</v>
+      </c>
+      <c r="E105">
+        <v>18425.099999999999</v>
+      </c>
+      <c r="F105">
+        <v>18625</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>18685.95</v>
+      </c>
+      <c r="H105">
+        <v>18760.774218250015</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>19166.82087222542</v>
+      </c>
+      <c r="K105">
+        <v>18539.317695690199</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>41.598504768639565</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>199.90000000000146</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>582.65000000000146</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.34308761692268247</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>18766.76496542152</v>
+      </c>
+      <c r="W105">
+        <v>18353.624107430936</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>413.14085799058375</v>
+      </c>
+      <c r="Y105">
+        <v>492.94440747933186</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>18425.849999999999</v>
+      </c>
+      <c r="D106">
+        <v>18690</v>
+      </c>
+      <c r="E106">
+        <v>18251.05</v>
+      </c>
+      <c r="F106">
+        <v>18458.849999999999</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>18466.633333333335</v>
+      </c>
+      <c r="H106">
+        <v>18613.703775791677</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>19060.860678397548</v>
+      </c>
+      <c r="K106">
+        <v>18475.258207759045</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>36.364213999780091</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>207.79999999999927</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>438.95000000000073</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.47340243763526352</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>18719.393432279747</v>
+      </c>
+      <c r="W106">
+        <v>18361.418617991607</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>357.9748142881399</v>
+      </c>
+      <c r="Y106">
+        <v>465.95048884109349</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>18310</v>
+      </c>
+      <c r="D107">
+        <v>18599</v>
+      </c>
+      <c r="E107">
+        <v>18310</v>
+      </c>
+      <c r="F107">
+        <v>18500</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>18469.666666666668</v>
+      </c>
+      <c r="H107">
+        <v>18541.685221229171</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>18958.22497208698</v>
+      </c>
+      <c r="K107">
+        <v>18438.534161590367</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>38.750181040920751</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>190</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>289</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.65743944636678198</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>18685.640596544403</v>
+      </c>
+      <c r="W107">
+        <v>18371.683905547783</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>313.95669099661973</v>
+      </c>
+      <c r="Y107">
+        <v>435.55172927219871</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
